--- a/STM32F429IDISCOVERY-FreeIO-Pinout.xlsx
+++ b/STM32F429IDISCOVERY-FreeIO-Pinout.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cra\Dropbox\CM4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cra\Dropbox\CM4\STM32F429IDISCOVERY-FreeIO-Pinout\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="236">
   <si>
     <t>32F429IDISCOVERY Pinout / Free IO</t>
   </si>
@@ -374,9 +375,6 @@
     <t>FMC_A12,</t>
   </si>
   <si>
-    <t xml:space="preserve"> EVENTOUT</t>
-  </si>
-  <si>
     <t>FMC_A13,</t>
   </si>
   <si>
@@ -384,6 +382,357 @@
   </si>
   <si>
     <t>April 16 2014</t>
+  </si>
+  <si>
+    <t>AF0</t>
+  </si>
+  <si>
+    <t>AF1</t>
+  </si>
+  <si>
+    <t>AF2</t>
+  </si>
+  <si>
+    <t>AF3</t>
+  </si>
+  <si>
+    <t>AF4</t>
+  </si>
+  <si>
+    <t>AF5</t>
+  </si>
+  <si>
+    <t>AF6</t>
+  </si>
+  <si>
+    <t>AF7</t>
+  </si>
+  <si>
+    <t>AF8</t>
+  </si>
+  <si>
+    <t>AF9</t>
+  </si>
+  <si>
+    <t>AF10</t>
+  </si>
+  <si>
+    <t>AF11</t>
+  </si>
+  <si>
+    <t>AF12</t>
+  </si>
+  <si>
+    <t>AF13</t>
+  </si>
+  <si>
+    <t>AF14</t>
+  </si>
+  <si>
+    <t>AF15</t>
+  </si>
+  <si>
+    <t>Sys</t>
+  </si>
+  <si>
+    <t>TIM1/2</t>
+  </si>
+  <si>
+    <t>TIM3/4/5</t>
+  </si>
+  <si>
+    <t>TIM8/9/10/11</t>
+  </si>
+  <si>
+    <t>I2C1/2/3</t>
+  </si>
+  <si>
+    <t>SPI2/3/SAI1</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>ETH</t>
+  </si>
+  <si>
+    <t>DCMI</t>
+  </si>
+  <si>
+    <t>SYS</t>
+  </si>
+  <si>
+    <t>TIM8_CH1N</t>
+  </si>
+  <si>
+    <t>SPI1_SCK</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>OTG_HS_ULPI_CK</t>
+  </si>
+  <si>
+    <t>TIM1_CH2</t>
+  </si>
+  <si>
+    <t>I2C3_SMBA</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t>DCMI_D0</t>
+  </si>
+  <si>
+    <t>TIM1_CH3</t>
+  </si>
+  <si>
+    <t>SPI1/2/3/4/5/6</t>
+  </si>
+  <si>
+    <t>SPI3/USART1/2/3</t>
+  </si>
+  <si>
+    <t>USART6/UART4/5/7/8</t>
+  </si>
+  <si>
+    <t>CAN1/2/TIM12/13/14/LCD</t>
+  </si>
+  <si>
+    <t>OTG2_HS/OTG1_FS</t>
+  </si>
+  <si>
+    <t>FMC/SDIO/OTG2_FS</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>OTG_FS_ID</t>
+  </si>
+  <si>
+    <t>DCMI_D1</t>
+  </si>
+  <si>
+    <t>TIM3_CH1</t>
+  </si>
+  <si>
+    <t>NJTRST</t>
+  </si>
+  <si>
+    <t>SPI1_MISO</t>
+  </si>
+  <si>
+    <t>SPI3_MISO</t>
+  </si>
+  <si>
+    <t>I2S3ext_SD</t>
+  </si>
+  <si>
+    <t>TIM4_CH2</t>
+  </si>
+  <si>
+    <t>I2C1_SDA</t>
+  </si>
+  <si>
+    <t>FMC_NL</t>
+  </si>
+  <si>
+    <t>DCMI_VSYNC</t>
+  </si>
+  <si>
+    <t>OTG_HS_ULPI_NXT</t>
+  </si>
+  <si>
+    <t>ETH_MII_TX_CLK</t>
+  </si>
+  <si>
+    <t>FMC_SDCKE0</t>
+  </si>
+  <si>
+    <t>TIM3_CH3</t>
+  </si>
+  <si>
+    <t>TIM8_CH3</t>
+  </si>
+  <si>
+    <t>USART6_CK</t>
+  </si>
+  <si>
+    <t>SDIO_D0</t>
+  </si>
+  <si>
+    <t>DCMI_D2</t>
+  </si>
+  <si>
+    <t>USART3_RX</t>
+  </si>
+  <si>
+    <t>UART4_RX</t>
+  </si>
+  <si>
+    <t>SDIO_D3</t>
+  </si>
+  <si>
+    <t>DCMI_D4</t>
+  </si>
+  <si>
+    <t>USART3_CK</t>
+  </si>
+  <si>
+    <t>UART5_TX</t>
+  </si>
+  <si>
+    <t>SDIO_CK</t>
+  </si>
+  <si>
+    <t>DCMI_D9</t>
+  </si>
+  <si>
+    <t>TIM2_CH1/ TIM2_ETR</t>
+  </si>
+  <si>
+    <t>SPI3_MOSI/ I2S3_SD</t>
+  </si>
+  <si>
+    <t>SPI2_MOSI/ I2S2_SD</t>
+  </si>
+  <si>
+    <t>TIM3_ETR</t>
+  </si>
+  <si>
+    <t>UART5_RX</t>
+  </si>
+  <si>
+    <t>SDIO_CMD</t>
+  </si>
+  <si>
+    <t>DCMI_D11</t>
+  </si>
+  <si>
+    <t>USART2_RTS</t>
+  </si>
+  <si>
+    <t>FMC_NOE</t>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+  </si>
+  <si>
+    <t>FMC_NWE</t>
+  </si>
+  <si>
+    <t>USART2_CK</t>
+  </si>
+  <si>
+    <t>FMC_NE1/ FMC_NCE2</t>
+  </si>
+  <si>
+    <t>TRACECLK</t>
+  </si>
+  <si>
+    <t>SPI4_SCK</t>
+  </si>
+  <si>
+    <t>SAI1_MCLK_A</t>
+  </si>
+  <si>
+    <t>ETH_MII_TXD3</t>
+  </si>
+  <si>
+    <t>FMC_A23</t>
+  </si>
+  <si>
+    <t>TRACED0</t>
+  </si>
+  <si>
+    <t>SAI1_SD_B</t>
+  </si>
+  <si>
+    <t>FMC_A19</t>
+  </si>
+  <si>
+    <t>TRACED1</t>
+  </si>
+  <si>
+    <t>TRACED2</t>
+  </si>
+  <si>
+    <t>SPI4_NSS</t>
+  </si>
+  <si>
+    <t>SAI1_FS_A</t>
+  </si>
+  <si>
+    <t>FMC_A20</t>
+  </si>
+  <si>
+    <t>LCD_B0</t>
+  </si>
+  <si>
+    <t>TIM9_CH1</t>
+  </si>
+  <si>
+    <t>TIM9_CH2</t>
+  </si>
+  <si>
+    <t>SPI4_MISO</t>
+  </si>
+  <si>
+    <t>SAI1_SCK_A</t>
+  </si>
+  <si>
+    <t>FMC_A21</t>
+  </si>
+  <si>
+    <t>DCMI_D6</t>
+  </si>
+  <si>
+    <t>LCD_G0</t>
+  </si>
+  <si>
+    <t>TRACED3</t>
+  </si>
+  <si>
+    <t>SPI4_MOSI</t>
+  </si>
+  <si>
+    <t>SAI1_SD_A</t>
+  </si>
+  <si>
+    <t>FMC_A22</t>
+  </si>
+  <si>
+    <t>DCMI_D7</t>
+  </si>
+  <si>
+    <t>LCD_G1</t>
+  </si>
+  <si>
+    <t>TIM10_CH1</t>
+  </si>
+  <si>
+    <t>SPI5_NSS</t>
+  </si>
+  <si>
+    <t>UART7_Rx</t>
+  </si>
+  <si>
+    <t>FMC_NIORD</t>
+  </si>
+  <si>
+    <t>FMC_A12</t>
+  </si>
+  <si>
+    <t>FMC_A13</t>
+  </si>
+  <si>
+    <t>USART6_RX</t>
+  </si>
+  <si>
+    <t>FMC_NE2/FMC_NCE3</t>
   </si>
 </sst>
 </file>
@@ -393,7 +742,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +753,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -495,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -532,6 +896,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -815,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -838,7 +1223,7 @@
     </row>
     <row r="2" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -850,7 +1235,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1012,7 +1397,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="23" t="s">
         <v>43</v>
       </c>
       <c r="H13" s="6"/>
@@ -1058,7 +1443,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="23" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="6"/>
@@ -2135,7 +2520,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
       <c r="G90" s="6" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="H90" s="6"/>
     </row>
@@ -2157,7 +2542,7 @@
         <v>88</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H91" s="6"/>
     </row>
@@ -2169,7 +2554,7 @@
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
       <c r="G92" s="6" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="H92" s="6"/>
     </row>
@@ -2252,4 +2637,1419 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="17" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="17" customWidth="1"/>
+    <col min="5" max="18" width="9.7109375" style="17" customWidth="1"/>
+    <col min="19" max="19" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D1" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="R1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="15" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R4" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q5" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R5" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q6" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R7" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O8" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="P8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q8" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O9" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O10" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q10" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R10" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="P12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q12" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="P14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="P16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q16" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="P17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q17" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="P18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q18" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N20" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O20" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q20" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="G21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N21" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O21" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="R21" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O22" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="P22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R22" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="P23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R23" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="L24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="P24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="M25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>